--- a/template/rating-information.xlsx
+++ b/template/rating-information.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D93D94-B55D-46CC-A9AF-78A0A55A1DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D3516-70C1-4945-A8AB-D8B01615A258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指导老师成绩" sheetId="1" r:id="rId1"/>
@@ -748,11 +748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H679" sqref="H679"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L67" si="0">SUM(F4:K4)</f>
+        <f t="shared" ref="L4" si="0">SUM(F4:K4)</f>
         <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -934,6 +934,26 @@
       </c>
       <c r="N4" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="L8" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -947,11 +967,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400D231F-57E9-4637-9E1D-9A4EFAEA3FB0}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A938" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5:L955"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1119,8 +1139,38 @@
         <v>5</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L67" si="0">SUM(F4:K4)</f>
+        <f t="shared" ref="L4" si="0">SUM(F4:K4)</f>
         <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="J12" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1134,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA770821-F5FF-4B7C-9E2F-0375D59347E4}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1297,8 +1347,23 @@
         <v>7</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K67" si="0">SUM(F4:J4)</f>
+        <f t="shared" ref="K4" si="0">SUM(F4:J4)</f>
         <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="I13" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/template/rating-information.xlsx
+++ b/template/rating-information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D3516-70C1-4945-A8AB-D8B01615A258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C2C99-6B3D-40B2-BB05-9FBA181639D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,9 @@
   <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩内容</t>
   </si>
 </sst>
 </file>
@@ -1184,11 +1187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA770821-F5FF-4B7C-9E2F-0375D59347E4}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1204,12 +1207,13 @@
     <col min="9" max="9" width="17.109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="28.21875" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="4"/>
-    <col min="12" max="13" width="13.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="2"/>
+    <col min="12" max="12" width="10.88671875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="13.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="100.8">
+    <row r="1" spans="1:15" ht="100.8">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1232,10 +1236,10 @@
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="28.8">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,17 +1273,20 @@
       <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1351,17 +1358,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="K6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="J10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="I13" s="4">
         <v>0</v>
       </c>

--- a/template/rating-information.xlsx
+++ b/template/rating-information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C2C99-6B3D-40B2-BB05-9FBA181639D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA6A437-25C4-4951-80B1-C0FDC57E4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,27 @@
   </si>
   <si>
     <t>答辩内容</t>
+  </si>
+  <si>
+    <t>测试内容1</t>
+  </si>
+  <si>
+    <t>小王</t>
+  </si>
+  <si>
+    <t>小河</t>
+  </si>
+  <si>
+    <t>秘书1</t>
+  </si>
+  <si>
+    <t>秘书2</t>
+  </si>
+  <si>
+    <t>408宿舍</t>
+  </si>
+  <si>
+    <t>409宿舍</t>
   </si>
 </sst>
 </file>
@@ -755,7 +776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1189,9 +1210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA770821-F5FF-4B7C-9E2F-0375D59347E4}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1321,6 +1342,18 @@
         <f>SUM(F3:J3)</f>
         <v>71</v>
       </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="1">
@@ -1356,6 +1389,18 @@
       <c r="K4" s="4">
         <f t="shared" ref="K4" si="0">SUM(F4:J4)</f>
         <v>53</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">

--- a/template/rating-information.xlsx
+++ b/template/rating-information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA6A437-25C4-4951-80B1-C0FDC57E4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA20887-F5FB-4355-B61A-0E762B40B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>409宿舍</t>
+  </si>
+  <si>
+    <t>201809090002</t>
+  </si>
+  <si>
+    <t>李四2</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -995,7 +1001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1210,9 +1216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA770821-F5FF-4B7C-9E2F-0375D59347E4}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1360,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -1400,6 +1406,54 @@
         <v>42</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5" si="1">SUM(F5:J5)</f>
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>44</v>
       </c>
     </row>

--- a/template/rating-information.xlsx
+++ b/template/rating-information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA20887-F5FB-4355-B61A-0E762B40B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A64DD5-4086-46F4-ABFB-311F1B05D38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>李四2</t>
+  </si>
+  <si>
+    <t>201809090003</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1007,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1218,7 +1224,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1410,11 +1416,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8">
-      <c r="A5" s="1">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
